--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_28.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91517.41086921222</v>
+        <v>6506220.642044644</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91517.41086921222</v>
+        <v>6506220.642044644</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608633010.85843</v>
+        <v>57207385.76000291</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15985.40046541518</v>
+        <v>1213036.893890237</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31770.74206074562</v>
+        <v>2392098.274091868</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47561.5306824198</v>
+        <v>3571159.654293499</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64420.0879335389</v>
+        <v>4674155.417548891</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80552.48666937275</v>
+        <v>5850977.226016796</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96684.88540520662</v>
+        <v>7027799.0344847</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>112817.2841410399</v>
+        <v>8204620.842952646</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>128949.6828768684</v>
+        <v>9381442.651421119</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>145808.2401279863</v>
+        <v>10484438.41467666</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>161940.6388638162</v>
+        <v>11661260.22314498</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178057.4732935209</v>
+        <v>12839139.85161328</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>194174.3077232257</v>
+        <v>14017019.48008158</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>210291.1421529304</v>
+        <v>15194899.10854989</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>227149.6994040463</v>
+        <v>16297894.87180571</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246072.1326231726</v>
+        <v>17136551.22926822</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>133.0000000001187</v>
@@ -27052,7 +27052,7 @@
         <v>44.00000000011407</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
